--- a/Dokumentálcio/Egyed esemény mátrix/Egyed esemény mátrix.xlsx
+++ b/Dokumentálcio/Egyed esemény mátrix/Egyed esemény mátrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\GitHub\Rock-and-Stone-webshop-uni.-project-\Dokumentálcio\Egyed esemény mátrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7200C25E-5D6C-4702-B22A-A71BDD7F7AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1497E8E3-5CEA-4571-98C1-08474EB08A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
